--- a/数据整理/stocks/港股/06862-海底捞.xlsx
+++ b/数据整理/stocks/港股/06862-海底捞.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010225</t>
+          <t>009010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合B</t>
+          <t>华夏兴阳一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>63.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7328</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>910022</t>
+          <t>501093</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>东方红启航三年持有期混合A</t>
+          <t>华夏翔阳两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.18</t>
+          <t>38.00</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2192</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>501093</t>
+          <t>009011</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏翔阳两年定期开放混合</t>
+          <t>华夏睿阳一年持有期混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>93.67</t>
+          <t>23.03</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.84</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>90.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3473</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>7</v>
       </c>
     </row>
@@ -586,15 +626,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>9.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>93.65</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>8.00</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7536</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>010225</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>东方红启航三年持有期混合B</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.65</t>
+          <t>27.35</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7412</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>004091</t>
+          <t>910022</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
+          <t>东方红启航三年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>27.35</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7412</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004092</t>
+          <t>006752</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
+          <t>天弘港股通精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>93.78</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.35</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3231</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006537</t>
+          <t>006753</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>恒生前海港股通精选混合</t>
+          <t>天弘港股通精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>86.87</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.02</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2665</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006752</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合A</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>4</v>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2232</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006753</t>
+          <t>006537</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>天弘港股通精选灵活配置混合C</t>
+          <t>恒生前海港股通精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.10</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>4</v>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0577</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009010</t>
+          <t>004091</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏兴阳一年持有期混合</t>
+          <t>博时沪港深价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>91.09</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.86</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>7</v>
       </c>
     </row>
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009011</t>
+          <t>004092</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华夏睿阳一年持有期混合</t>
+          <t>博时沪港深价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90.97</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>7</v>
       </c>
     </row>
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004266</t>
+          <t>009010</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+          <t>华夏兴阳一年持有期混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>68.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3263</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010754</t>
+          <t>501093</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+          <t>华夏翔阳两年定期开放混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.81</t>
+          <t>35.98</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6659</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>871003</t>
+          <t>002685</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发资管价值增长灵活配置混合</t>
+          <t>中欧丰泓沪港深灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>75.78</t>
+          <t>29.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1683</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -958,25 +1128,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>161729</t>
+          <t>871003</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
+          <t>广发资管价值增长灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>86.52</t>
+          <t>11.20</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>75.78</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5387</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>6</v>
       </c>
     </row>
@@ -986,25 +1166,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002685</t>
+          <t>010755</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合A</t>
+          <t>博道睿见一年持有期混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>11.82</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4350</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002686</t>
+          <t>161729</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中欧丰泓沪港深灵活配置混合C</t>
+          <t>招商 3 年封闭运作瑞利灵活配置混合型</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>93.73</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>86.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2356</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>004091</t>
+          <t>002686</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>博时沪港深价值优选灵活配置混合A</t>
+          <t>中欧丰泓沪港深灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.23</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1070,25 +1280,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004092</t>
+          <t>004091</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>博时沪港深价值优选灵活配置混合C</t>
+          <t>博时沪港深价值优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>88.23</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>4.21</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>501093</t>
+          <t>004266</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏翔阳两年定期开放混合</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.95</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.63</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010755</t>
+          <t>004092</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博道睿见一年持有期混合</t>
+          <t>博时沪港深价值优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.56</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.68</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009010</t>
+          <t>010754</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华夏兴阳一年持有期混合</t>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>90.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/港股/06862-海底捞.xlsx
+++ b/数据整理/stocks/港股/06862-海底捞.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1429,4 +1430,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>70.38</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8856</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.69</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0588</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9040</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3928</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06862-海底捞.xlsx
+++ b/数据整理/stocks/港股/06862-海底捞.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1676,4 +1677,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>56.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6060</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>55.88</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2631</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.5326</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004263</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安沪港深机会灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>28.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.2934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010554</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0883</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501071</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泓德三年运作丰泽封闭</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.06</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8416</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.7059</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002332</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4339</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007291</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇丰晋信港股通双核策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3411</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009897</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发港股通成长精选股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.01</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010555</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.06</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1906</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006768</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安沪港深优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002333</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇丰晋信沪港深股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06862-海底捞.xlsx
+++ b/数据整理/stocks/港股/06862-海底捞.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2227,4 +2228,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06862-海底捞.xlsx
+++ b/数据整理/stocks/港股/06862-海底捞.xlsx
@@ -2252,12 +2252,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/港股/06862-海底捞.xlsx
+++ b/数据整理/stocks/港股/06862-海底捞.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2236,7 +2237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2247,17 +2248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2267,14 +2288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.65</v>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>36.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8303</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2283,14 +2326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.32</v>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>41.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3813</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2299,14 +2364,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4310</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.65</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>6.54</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="5">
@@ -2315,13 +2486,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.45</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06862-海底捞.xlsx
+++ b/数据整理/stocks/港股/06862-海底捞.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>3.64</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>11.65</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>5.32</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>6.54</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.45</v>
       </c>
     </row>
@@ -566,6 +583,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>74.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.3844</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>29.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.6308</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8474</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.32</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3829</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -735,7 +960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1285,7 +1510,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1531,7 +1756,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2005,7 +2230,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06862-海底捞.xlsx
+++ b/数据整理/stocks/港股/06862-海底捞.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>6.25</v>
+        <v>8.06</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>3.64</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>11.65</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>5.32</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>6.54</v>
+        <v>5.32</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6.54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.45</v>
       </c>
     </row>
@@ -583,6 +600,252 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008545</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泓德丰润三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.37</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>66.60</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5002</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005395</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泓德臻远回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2110</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010864</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>泓德卓远混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>25.76</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1644</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012502</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银华安盛混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>13.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6657</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010865</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>泓德卓远混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5225</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -790,7 +1053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -960,7 +1223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1510,7 +1773,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1756,7 +2019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2230,7 +2493,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
